--- a/data/Seminar APT 2019 - Returns V2.xlsx
+++ b/data/Seminar APT 2019 - Returns V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rino/repos/portfolio_optimization_risk_indexation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\portfolio_optimization_risk_indexation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93522FF6-A62D-1F48-BB53-08D1E62693E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04380F64-4E80-4B86-A78A-610C6BA8BD58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1345" yWindow="-109" windowWidth="33541" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="time series" sheetId="1" r:id="rId1"/>
@@ -1765,9 +1765,6 @@
     <t>Equities Switzerland</t>
   </si>
   <si>
-    <t>Equites Global Developed</t>
-  </si>
-  <si>
     <t>Equities Emerging Markets</t>
   </si>
   <si>
@@ -1796,6 +1793,9 @@
   </si>
   <si>
     <t>Liability Proxy 10+ years</t>
+  </si>
+  <si>
+    <t>Equities Global Developed</t>
   </si>
 </sst>
 </file>
@@ -2163,30 +2163,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.55" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="21.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.796875" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2212,40 +2214,40 @@
         <v>579</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2290,7 +2292,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2337,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2380,7 +2382,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2427,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2470,7 +2472,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
-    <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2515,7 +2517,7 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2562,7 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2605,7 +2607,7 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2652,7 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2697,7 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2740,7 +2742,7 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2787,7 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2830,7 +2832,7 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2875,7 +2877,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2920,7 +2922,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2965,7 +2967,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3010,7 +3012,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
-    <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3057,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3100,7 +3102,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3145,7 +3147,7 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3190,7 +3192,7 @@
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3235,7 +3237,7 @@
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3282,7 @@
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3325,7 +3327,7 @@
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3370,7 +3372,7 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3415,7 +3417,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3460,7 +3462,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3505,7 +3507,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3550,7 +3552,7 @@
       <c r="R30" s="4"/>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3595,7 +3597,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3640,7 +3642,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3685,7 +3687,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3730,7 +3732,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3775,7 +3777,7 @@
       <c r="R35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3820,7 +3822,7 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3865,7 +3867,7 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
     </row>
-    <row r="38" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3910,7 +3912,7 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
     </row>
-    <row r="39" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3955,7 +3957,7 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
     </row>
-    <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -4000,7 +4002,7 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
     </row>
-    <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -4045,7 +4047,7 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
     </row>
-    <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -4090,7 +4092,7 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
     </row>
-    <row r="43" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -4135,7 +4137,7 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
     </row>
-    <row r="44" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -4180,7 +4182,7 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
     </row>
-    <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -4225,7 +4227,7 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
     </row>
-    <row r="46" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -4270,7 +4272,7 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
     </row>
-    <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -4315,7 +4317,7 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
     </row>
-    <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -4360,7 +4362,7 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
     </row>
-    <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -4405,7 +4407,7 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
     </row>
-    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,7 +4452,7 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
     </row>
-    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -4495,7 +4497,7 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
     </row>
-    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -4540,7 +4542,7 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -4585,7 +4587,7 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -4630,7 +4632,7 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -4675,7 +4677,7 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -4720,7 +4722,7 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -4765,7 +4767,7 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -4810,7 +4812,7 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -4855,7 +4857,7 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -4900,7 +4902,7 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -4945,7 +4947,7 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -4990,7 +4992,7 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -5080,7 +5082,7 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -5125,7 +5127,7 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -5170,7 +5172,7 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -5215,7 +5217,7 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -5260,7 +5262,7 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -5305,7 +5307,7 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -5350,7 +5352,7 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -5395,7 +5397,7 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -5440,7 +5442,7 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -5485,7 +5487,7 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -5530,7 +5532,7 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -5575,7 +5577,7 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -5620,7 +5622,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -5665,7 +5667,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -5710,7 +5712,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -5755,7 +5757,7 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -5800,7 +5802,7 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -5845,7 +5847,7 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -5890,7 +5892,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -5935,7 +5937,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -5980,7 +5982,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -6025,7 +6027,7 @@
       <c r="R85" s="4"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -6070,7 +6072,7 @@
       <c r="R86" s="4"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -6115,7 +6117,7 @@
       <c r="R87" s="4"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -6160,7 +6162,7 @@
       <c r="R88" s="4"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -6205,7 +6207,7 @@
       <c r="R89" s="4"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -6250,7 +6252,7 @@
       <c r="R90" s="4"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -6295,7 +6297,7 @@
       <c r="R91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -6340,7 +6342,7 @@
       <c r="R92" s="4"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -6385,7 +6387,7 @@
       <c r="R93" s="4"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -6430,7 +6432,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -6475,7 +6477,7 @@
       <c r="R95" s="4"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -6520,7 +6522,7 @@
       <c r="R96" s="4"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -6565,7 +6567,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -6610,7 +6612,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -6655,7 +6657,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -6700,7 +6702,7 @@
       <c r="R100" s="4"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -6745,7 +6747,7 @@
       <c r="R101" s="4"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -6790,7 +6792,7 @@
       <c r="R102" s="4"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -6835,7 +6837,7 @@
       <c r="R103" s="4"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -6880,7 +6882,7 @@
       <c r="R104" s="4"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -6925,7 +6927,7 @@
       <c r="R105" s="4"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -6970,7 +6972,7 @@
       <c r="R106" s="4"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -7015,7 +7017,7 @@
       <c r="R107" s="4"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -7060,7 +7062,7 @@
       <c r="R108" s="4"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -7105,7 +7107,7 @@
       <c r="R109" s="4"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -7150,7 +7152,7 @@
       <c r="R110" s="4"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -7195,7 +7197,7 @@
       <c r="R111" s="4"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -7240,7 +7242,7 @@
       <c r="R112" s="4"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -7285,7 +7287,7 @@
       <c r="R113" s="4"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -7330,7 +7332,7 @@
       <c r="R114" s="4"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -7375,7 +7377,7 @@
       <c r="R115" s="4"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -7420,7 +7422,7 @@
       <c r="R116" s="4"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -7465,7 +7467,7 @@
       <c r="R117" s="4"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -7510,7 +7512,7 @@
       <c r="R118" s="4"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -7555,7 +7557,7 @@
       <c r="R119" s="4"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -7600,7 +7602,7 @@
       <c r="R120" s="4"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -7645,7 +7647,7 @@
       <c r="R121" s="4"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -7690,7 +7692,7 @@
       <c r="R122" s="4"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -7735,7 +7737,7 @@
       <c r="R123" s="4"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -7780,7 +7782,7 @@
       <c r="R124" s="4"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -7825,7 +7827,7 @@
       <c r="R125" s="4"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -7870,7 +7872,7 @@
       <c r="R126" s="4"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -7915,7 +7917,7 @@
       <c r="R127" s="4"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -7960,7 +7962,7 @@
       <c r="R128" s="4"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -8005,7 +8007,7 @@
       <c r="R129" s="4"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -8050,7 +8052,7 @@
       <c r="R130" s="4"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -8095,7 +8097,7 @@
       <c r="R131" s="4"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -8140,7 +8142,7 @@
       <c r="R132" s="4"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -8185,7 +8187,7 @@
       <c r="R133" s="4"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -8230,7 +8232,7 @@
       <c r="R134" s="4"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -8275,7 +8277,7 @@
       <c r="R135" s="4"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -8320,7 +8322,7 @@
       <c r="R136" s="4"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -8365,7 +8367,7 @@
       <c r="R137" s="4"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -8410,7 +8412,7 @@
       <c r="R138" s="4"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -8455,7 +8457,7 @@
       <c r="R139" s="4"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -8500,7 +8502,7 @@
       <c r="R140" s="4"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -8545,7 +8547,7 @@
       <c r="R141" s="4"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -8590,7 +8592,7 @@
       <c r="R142" s="4"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -8635,7 +8637,7 @@
       <c r="R143" s="4"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -8680,7 +8682,7 @@
       <c r="R144" s="4"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -8725,7 +8727,7 @@
       <c r="R145" s="4"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -8770,7 +8772,7 @@
       <c r="R146" s="4"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -8815,7 +8817,7 @@
       <c r="R147" s="4"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -8860,7 +8862,7 @@
       <c r="R148" s="4"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -8905,7 +8907,7 @@
       <c r="R149" s="4"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -8950,7 +8952,7 @@
       <c r="R150" s="4"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -8995,7 +8997,7 @@
       <c r="R151" s="4"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -9040,7 +9042,7 @@
       <c r="R152" s="4"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -9085,7 +9087,7 @@
       <c r="R153" s="4"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -9130,7 +9132,7 @@
       <c r="R154" s="4"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -9175,7 +9177,7 @@
       <c r="R155" s="4"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -9220,7 +9222,7 @@
       <c r="R156" s="4"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -9265,7 +9267,7 @@
       <c r="R157" s="4"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -9310,7 +9312,7 @@
       <c r="R158" s="4"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -9363,7 +9365,7 @@
         <v>-1.38588958E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -9416,7 +9418,7 @@
         <v>5.4614364000000002E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -9469,7 +9471,7 @@
         <v>1.40878285E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -9522,7 +9524,7 @@
         <v>1.85998E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>2.9642599000000002E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -9628,7 +9630,7 @@
         <v>3.1018176E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -9681,7 +9683,7 @@
         <v>9.3026199999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -9734,7 +9736,7 @@
         <v>7.6676330000000001E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>6.5394867000000004E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -9840,7 +9842,7 @@
         <v>5.0303572000000001E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>1.36333394E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -9946,7 +9948,7 @@
         <v>1.14510427E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -9999,7 +10001,7 @@
         <v>9.3521043000000005E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -10052,7 +10054,7 @@
         <v>1.45497452E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -10105,7 +10107,7 @@
         <v>-2.3416870999999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>-4.2616507999999999E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -10211,7 +10213,7 @@
         <v>-2.9652831E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>9.3741441000000005E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -10317,7 +10319,7 @@
         <v>2.0404235499999999E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -10370,7 +10372,7 @@
         <v>6.0001840000000004E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -10423,7 +10425,7 @@
         <v>8.1729048999999998E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -10476,7 +10478,7 @@
         <v>1.9409905E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>4.9057574000000003E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -10582,7 +10584,7 @@
         <v>1.4819856100000001E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -10635,7 +10637,7 @@
         <v>-1.2316789E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -10688,7 +10690,7 @@
         <v>-4.7498779000000003E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -10741,7 +10743,7 @@
         <v>3.8335624000000001E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -10794,7 +10796,7 @@
         <v>2.2473269999999999E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -10847,7 +10849,7 @@
         <v>5.1594754000000003E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -10900,7 +10902,7 @@
         <v>6.3137304000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -10953,7 +10955,7 @@
         <v>-6.8509204999999997E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>-1.5780495200000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -11059,7 +11061,7 @@
         <v>1.8162560899999999E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -11112,7 +11114,7 @@
         <v>2.5444523600000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -11165,7 +11167,7 @@
         <v>-3.8033051999999999E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -11218,7 +11220,7 @@
         <v>4.3374568999999998E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -11271,7 +11273,7 @@
         <v>5.7156654999999997E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -11324,7 +11326,7 @@
         <v>5.9078897000000002E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>1.2043501E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -11430,7 +11432,7 @@
         <v>-1.36125502E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -11483,7 +11485,7 @@
         <v>1.5583107000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -11536,7 +11538,7 @@
         <v>-7.9050353E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -11589,7 +11591,7 @@
         <v>2.7770312999999998E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -11642,7 +11644,7 @@
         <v>7.4036483000000002E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -11695,7 +11697,7 @@
         <v>9.7018743999999994E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -11748,7 +11750,7 @@
         <v>1.6922058000000001E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -11801,7 +11803,7 @@
         <v>2.3797327000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -11854,7 +11856,7 @@
         <v>-2.5929708700000002E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -11907,7 +11909,7 @@
         <v>-1.6607710500000001E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -11960,7 +11962,7 @@
         <v>-2.7264961000000002E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -12013,7 +12015,7 @@
         <v>-1.568114E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -12066,7 +12068,7 @@
         <v>-2.0934922700000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -12119,7 +12121,7 @@
         <v>2.18252866E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -12172,7 +12174,7 @@
         <v>3.53909E-5</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -12225,7 +12227,7 @@
         <v>1.7059096E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -12278,7 +12280,7 @@
         <v>-1.0129650800000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -12331,7 +12333,7 @@
         <v>6.3836991999999997E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -12384,7 +12386,7 @@
         <v>-8.1628002000000005E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -12437,7 +12439,7 @@
         <v>-6.7934616E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -12490,7 +12492,7 @@
         <v>-3.7894728199999998E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -12543,7 +12545,7 @@
         <v>-9.5684250999999998E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>-2.3639644200000001E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -12649,7 +12651,7 @@
         <v>-1.2068043400000001E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -12702,7 +12704,7 @@
         <v>4.1570658900000002E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>1.7883641499999998E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -12808,7 +12810,7 @@
         <v>1.9592986699999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -12861,7 +12863,7 @@
         <v>-4.7995099200000002E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -12914,7 +12916,7 @@
         <v>8.2533647999999994E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -12967,7 +12969,7 @@
         <v>4.7789312999999998E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -13020,7 +13022,7 @@
         <v>-5.8431799999999998E-5</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -13073,7 +13075,7 @@
         <v>2.9228777000000002E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -13126,7 +13128,7 @@
         <v>2.8236547099999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -13179,7 +13181,7 @@
         <v>1.8416413499999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -13232,7 +13234,7 @@
         <v>8.9947355E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -13285,7 +13287,7 @@
         <v>2.8224621500000002E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
@@ -13338,7 +13340,7 @@
         <v>3.2006053200000002E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -13391,7 +13393,7 @@
         <v>-1.5133906799999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
@@ -13444,7 +13446,7 @@
         <v>1.3393332900000001E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
@@ -13497,7 +13499,7 @@
         <v>-1.7582533000000001E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -13550,7 +13552,7 @@
         <v>-3.0874621000000001E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
@@ -13603,7 +13605,7 @@
         <v>-4.4093369899999998E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -13656,7 +13658,7 @@
         <v>7.5959864E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -13709,7 +13711,7 @@
         <v>2.4712989000000001E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
@@ -13762,7 +13764,7 @@
         <v>2.19526429E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
@@ -13815,7 +13817,7 @@
         <v>9.1185296999999992E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
@@ -13868,7 +13870,7 @@
         <v>-2.5896196100000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
@@ -13921,7 +13923,7 @@
         <v>-4.1248800000000003E-4</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
@@ -13974,7 +13976,7 @@
         <v>-1.97197052E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
@@ -14027,7 +14029,7 @@
         <v>1.1996204999999999E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -14080,7 +14082,7 @@
         <v>1.14510056E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
@@ -14133,7 +14135,7 @@
         <v>6.9252434000000003E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
@@ -14186,7 +14188,7 @@
         <v>4.4571227999999997E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
@@ -14239,7 +14241,7 @@
         <v>2.69451593E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -14292,7 +14294,7 @@
         <v>1.13429325E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
@@ -14345,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
@@ -14398,7 +14400,7 @@
         <v>5.3229976200000001E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
@@ -14451,7 +14453,7 @@
         <v>5.0148290399999997E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
@@ -14504,7 +14506,7 @@
         <v>1.76480678E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
@@ -14557,7 +14559,7 @@
         <v>-7.7066744999999999E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
@@ -14610,7 +14612,7 @@
         <v>8.9936229999999992E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
@@ -14663,7 +14665,7 @@
         <v>2.60711868E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
@@ -14716,7 +14718,7 @@
         <v>5.8053371000000003E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
@@ -14769,7 +14771,7 @@
         <v>7.5839208000000003E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
@@ -14822,7 +14824,7 @@
         <v>1.00589279E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
@@ -14875,7 +14877,7 @@
         <v>2.09299519E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
@@ -14928,7 +14930,7 @@
         <v>2.8443406000000001E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>1.0059208199999999E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
@@ -15034,7 +15036,7 @@
         <v>-3.8281368000000001E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
@@ -15087,7 +15089,7 @@
         <v>-1.6553416899999999E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
@@ -15140,7 +15142,7 @@
         <v>-1.34111696E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
@@ -15193,7 +15195,7 @@
         <v>-2.3333081299999999E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
@@ -15246,7 +15248,7 @@
         <v>-3.0954428000000002E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
@@ -15299,7 +15301,7 @@
         <v>-1.6927852600000001E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
@@ -15352,7 +15354,7 @@
         <v>9.4183319999999997E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
@@ -15405,7 +15407,7 @@
         <v>-1.7294589700000002E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
@@ -15458,7 +15460,7 @@
         <v>-5.3545086000000002E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
@@ -15511,7 +15513,7 @@
         <v>5.1445804999999999E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
@@ -15564,7 +15566,7 @@
         <v>2.3496459300000001E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
@@ -15617,7 +15619,7 @@
         <v>1.15871351E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
@@ -15670,7 +15672,7 @@
         <v>1.1456705000000001E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
@@ -15723,7 +15725,7 @@
         <v>6.0058691000000001E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
@@ -15776,7 +15778,7 @@
         <v>1.99382338E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
@@ -15829,7 +15831,7 @@
         <v>1.7144751900000001E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
@@ -15882,7 +15884,7 @@
         <v>1.7147551099999998E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
@@ -15935,7 +15937,7 @@
         <v>-3.0494570000000002E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
@@ -15988,7 +15990,7 @@
         <v>1.512264E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
@@ -16041,7 +16043,7 @@
         <v>9.2306173000000005E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
@@ -16094,7 +16096,7 @@
         <v>2.2562460900000001E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
@@ -16147,7 +16149,7 @@
         <v>1.9264894500000001E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
@@ -16200,7 +16202,7 @@
         <v>3.0506576000000001E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
@@ -16253,7 +16255,7 @@
         <v>5.2938654999999998E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
@@ -16306,7 +16308,7 @@
         <v>-3.1993652599999998E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
@@ -16359,7 +16361,7 @@
         <v>7.3820969000000002E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
@@ -16412,7 +16414,7 @@
         <v>3.6028224E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
@@ -16465,7 +16467,7 @@
         <v>9.1352085000000003E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
@@ -16518,7 +16520,7 @@
         <v>-2.73465263E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
@@ -16571,7 +16573,7 @@
         <v>1.34027772E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
@@ -16624,7 +16626,7 @@
         <v>6.1232726999999997E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
@@ -16677,7 +16679,7 @@
         <v>1.35672747E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
@@ -16730,7 +16732,7 @@
         <v>2.0814131600000001E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
@@ -16783,7 +16785,7 @@
         <v>1.55582507E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
@@ -16836,7 +16838,7 @@
         <v>1.1074043999999999E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>8.7220796E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
@@ -16942,7 +16944,7 @@
         <v>1.5663878499999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
@@ -16995,7 +16997,7 @@
         <v>3.9627735300000001E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
@@ -17048,7 +17050,7 @@
         <v>-2.2890418999999999E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
@@ -17101,7 +17103,7 @@
         <v>1.3865454399999999E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
@@ -17154,7 +17156,7 @@
         <v>1.84065258E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
@@ -17207,7 +17209,7 @@
         <v>6.4939875999999999E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
@@ -17260,7 +17262,7 @@
         <v>-1.3524683E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
@@ -17313,7 +17315,7 @@
         <v>-4.1661928000000003E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
@@ -17366,7 +17368,7 @@
         <v>1.4944152999999999E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>2.3351051000000001E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
@@ -17472,7 +17474,7 @@
         <v>7.3655205000000001E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
@@ -17525,7 +17527,7 @@
         <v>2.3208138600000001E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
@@ -17578,7 +17580,7 @@
         <v>3.43882488E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
@@ -17631,7 +17633,7 @@
         <v>8.6597124999999997E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
@@ -17684,7 +17686,7 @@
         <v>-1.11873037E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
@@ -17737,7 +17739,7 @@
         <v>-1.4231959000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
@@ -17790,7 +17792,7 @@
         <v>1.6608482500000001E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
@@ -17843,7 +17845,7 @@
         <v>-1.0329787300000001E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
@@ -17896,7 +17898,7 @@
         <v>1.2606355600000001E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>1.8603086899999999E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>321</v>
       </c>
@@ -18002,7 +18004,7 @@
         <v>7.3773907999999996E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>322</v>
       </c>
@@ -18055,7 +18057,7 @@
         <v>1.41231846E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>323</v>
       </c>
@@ -18108,7 +18110,7 @@
         <v>1.5512763000000001E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>324</v>
       </c>
@@ -18161,7 +18163,7 @@
         <v>1.37489616E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>325</v>
       </c>
@@ -18216,7 +18218,7 @@
         <v>4.5035068000000003E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
@@ -18271,7 +18273,7 @@
         <v>3.497366E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>327</v>
       </c>
@@ -18326,7 +18328,7 @@
         <v>-2.3337923E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>328</v>
       </c>
@@ -18381,7 +18383,7 @@
         <v>1.28483816E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>329</v>
       </c>
@@ -18436,7 +18438,7 @@
         <v>-9.3465265000000006E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>330</v>
       </c>
@@ -18491,7 +18493,7 @@
         <v>-2.7553760699999999E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>331</v>
       </c>
@@ -18546,7 +18548,7 @@
         <v>3.7944568000000001E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>332</v>
       </c>
@@ -18601,7 +18603,7 @@
         <v>-3.8964021999999998E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>333</v>
       </c>
@@ -18656,7 +18658,7 @@
         <v>-2.1928665100000001E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>334</v>
       </c>
@@ -18711,7 +18713,7 @@
         <v>-2.5384899999999998E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
@@ -18766,7 +18768,7 @@
         <v>1.49018693E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>336</v>
       </c>
@@ -18821,7 +18823,7 @@
         <v>5.5134991000000003E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>337</v>
       </c>
@@ -18876,7 +18878,7 @@
         <v>-1.1055283399999999E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>338</v>
       </c>
@@ -18931,7 +18933,7 @@
         <v>1.2749393E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>339</v>
       </c>
@@ -18986,7 +18988,7 @@
         <v>-2.4272227699999999E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>340</v>
       </c>
@@ -19041,7 +19043,7 @@
         <v>8.9835824000000005E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
@@ -19096,7 +19098,7 @@
         <v>-3.6081895000000001E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>342</v>
       </c>
@@ -19151,7 +19153,7 @@
         <v>1.7577619799999999E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
@@ -19206,7 +19208,7 @@
         <v>9.5825318000000003E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>344</v>
       </c>
@@ -19261,7 +19263,7 @@
         <v>1.3010751500000001E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>345</v>
       </c>
@@ -19316,7 +19318,7 @@
         <v>-4.3058849999999997E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>346</v>
       </c>
@@ -19371,7 +19373,7 @@
         <v>7.6054651999999997E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>347</v>
       </c>
@@ -19426,7 +19428,7 @@
         <v>1.6795464699999998E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>348</v>
       </c>
@@ -19481,7 +19483,7 @@
         <v>2.4956374699999999E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>349</v>
       </c>
@@ -19536,7 +19538,7 @@
         <v>4.2888366000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
@@ -19591,7 +19593,7 @@
         <v>2.7809834E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>351</v>
       </c>
@@ -19646,7 +19648,7 @@
         <v>1.8886326799999999E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
@@ -19701,7 +19703,7 @@
         <v>-2.0897905899999999E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
@@ -19756,7 +19758,7 @@
         <v>4.5347421999999997E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>354</v>
       </c>
@@ -19811,7 +19813,7 @@
         <v>1.7543813599999999E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>355</v>
       </c>
@@ -19866,7 +19868,7 @@
         <v>8.8214208000000002E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>356</v>
       </c>
@@ -19921,7 +19923,7 @@
         <v>6.9595211000000002E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>357</v>
       </c>
@@ -19976,7 +19978,7 @@
         <v>9.284558E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>358</v>
       </c>
@@ -20031,7 +20033,7 @@
         <v>3.59999503E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>359</v>
       </c>
@@ -20086,7 +20088,7 @@
         <v>-2.2746891799999999E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>360</v>
       </c>
@@ -20143,7 +20145,7 @@
         <v>-2.7246913899999999E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
@@ -20200,7 +20202,7 @@
         <v>2.9774324E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>362</v>
       </c>
@@ -20257,7 +20259,7 @@
         <v>9.5956359999999996E-4</v>
       </c>
     </row>
-    <row r="364" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>363</v>
       </c>
@@ -20316,7 +20318,7 @@
         <v>-1.7516412E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>364</v>
       </c>
@@ -20375,7 +20377,7 @@
         <v>1.19591145E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>365</v>
       </c>
@@ -20434,7 +20436,7 @@
         <v>6.1046197000000002E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>366</v>
       </c>
@@ -20493,7 +20495,7 @@
         <v>1.9265958499999999E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>367</v>
       </c>
@@ -20552,7 +20554,7 @@
         <v>1.9728358299999998E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>368</v>
       </c>
@@ -20611,7 +20613,7 @@
         <v>7.7368689999999997E-4</v>
       </c>
     </row>
-    <row r="370" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>369</v>
       </c>
@@ -20670,7 +20672,7 @@
         <v>4.5144830800000001E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>370</v>
       </c>
@@ -20729,7 +20731,7 @@
         <v>-4.3803935000000004E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>371</v>
       </c>
@@ -20788,7 +20790,7 @@
         <v>6.6056446000000001E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>372</v>
       </c>
@@ -20847,7 +20849,7 @@
         <v>3.2945980999999999E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>373</v>
       </c>
@@ -20906,7 +20908,7 @@
         <v>4.7331101999999996E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>374</v>
       </c>
@@ -20965,7 +20967,7 @@
         <v>5.4186160999999998E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>375</v>
       </c>
@@ -21024,7 +21026,7 @@
         <v>-2.8006762099999999E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>376</v>
       </c>
@@ -21083,7 +21085,7 @@
         <v>3.8936676000000002E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>377</v>
       </c>
@@ -21142,7 +21144,7 @@
         <v>2.7490776799999998E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>378</v>
       </c>
@@ -21201,7 +21203,7 @@
         <v>-1.09309894E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>379</v>
       </c>
@@ -21260,7 +21262,7 @@
         <v>-5.7150079999999997E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>380</v>
       </c>
@@ -21319,7 +21321,7 @@
         <v>-1.9216431799999999E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>381</v>
       </c>
@@ -21378,7 +21380,7 @@
         <v>1.9189226100000002E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>382</v>
       </c>
@@ -21437,7 +21439,7 @@
         <v>-9.2493838000000002E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>383</v>
       </c>
@@ -21496,7 +21498,7 @@
         <v>-1.5045032E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>384</v>
       </c>
@@ -21555,7 +21557,7 @@
         <v>2.6836519199999999E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>385</v>
       </c>
@@ -21614,7 +21616,7 @@
         <v>-1.0660446000000001E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>386</v>
       </c>
@@ -21673,7 +21675,7 @@
         <v>1.38310664E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>387</v>
       </c>
@@ -21732,7 +21734,7 @@
         <v>1.5639396400000002E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>388</v>
       </c>
@@ -21791,7 +21793,7 @@
         <v>-6.7253219999999997E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>389</v>
       </c>
@@ -21850,7 +21852,7 @@
         <v>-9.9923287000000006E-3</v>
       </c>
     </row>
-    <row r="391" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>390</v>
       </c>
@@ -21909,7 +21911,7 @@
         <v>-8.9777495999999995E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>391</v>
       </c>
@@ -21968,7 +21970,7 @@
         <v>1.25096228E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>392</v>
       </c>
@@ -22027,7 +22029,7 @@
         <v>1.44088037E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>393</v>
       </c>
@@ -22086,7 +22088,7 @@
         <v>9.7697110000000004E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>394</v>
       </c>
@@ -22145,7 +22147,7 @@
         <v>2.21255572E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>395</v>
       </c>
@@ -22204,7 +22206,7 @@
         <v>2.8720782600000001E-2</v>
       </c>
     </row>
-    <row r="397" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>396</v>
       </c>
@@ -22263,7 +22265,7 @@
         <v>5.4326692000000003E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>397</v>
       </c>
@@ -22322,7 +22324,7 @@
         <v>2.1872938000000001E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>398</v>
       </c>
@@ -22381,7 +22383,7 @@
         <v>-9.3845855000000006E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>399</v>
       </c>
@@ -22440,7 +22442,7 @@
         <v>7.4930943000000002E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>400</v>
       </c>
@@ -22499,7 +22501,7 @@
         <v>2.8118953299999999E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>401</v>
       </c>
@@ -22558,7 +22560,7 @@
         <v>1.7187359999999999E-2</v>
       </c>
     </row>
-    <row r="403" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>402</v>
       </c>
@@ -22617,7 +22619,7 @@
         <v>-2.5982033E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
@@ -22676,7 +22678,7 @@
         <v>3.6979036E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>404</v>
       </c>
@@ -22735,7 +22737,7 @@
         <v>1.2553519900000001E-2</v>
       </c>
     </row>
-    <row r="406" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>405</v>
       </c>
@@ -22794,7 +22796,7 @@
         <v>1.1430124700000001E-2</v>
       </c>
     </row>
-    <row r="407" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>406</v>
       </c>
@@ -22853,7 +22855,7 @@
         <v>-1.9232603300000001E-2</v>
       </c>
     </row>
-    <row r="408" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>407</v>
       </c>
@@ -22912,7 +22914,7 @@
         <v>-4.2693577999999999E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>408</v>
       </c>
@@ -22971,7 +22973,7 @@
         <v>2.09232029E-2</v>
       </c>
     </row>
-    <row r="410" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>409</v>
       </c>
@@ -23030,7 +23032,7 @@
         <v>-1.6367621299999999E-2</v>
       </c>
     </row>
-    <row r="411" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
@@ -23089,7 +23091,7 @@
         <v>-2.0770559999999999E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>411</v>
       </c>
@@ -23148,7 +23150,7 @@
         <v>-2.9326478900000001E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>412</v>
       </c>
@@ -23207,7 +23209,7 @@
         <v>-2.6701356700000001E-2</v>
       </c>
     </row>
-    <row r="414" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>413</v>
       </c>
@@ -23266,7 +23268,7 @@
         <v>3.5618564000000001E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>414</v>
       </c>
@@ -23325,7 +23327,7 @@
         <v>-1.00999135E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>415</v>
       </c>
@@ -23384,7 +23386,7 @@
         <v>1.4595528700000001E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>416</v>
       </c>
@@ -23443,7 +23445,7 @@
         <v>3.03982122E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>417</v>
       </c>
@@ -23502,7 +23504,7 @@
         <v>1.3510122899999999E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>418</v>
       </c>
@@ -23561,7 +23563,7 @@
         <v>4.7616908000000001E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>419</v>
       </c>
@@ -23620,7 +23622,7 @@
         <v>1.5012658700000001E-2</v>
       </c>
     </row>
-    <row r="421" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>420</v>
       </c>
@@ -23679,7 +23681,7 @@
         <v>-1.19989524E-2</v>
       </c>
     </row>
-    <row r="422" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>421</v>
       </c>
@@ -23738,7 +23740,7 @@
         <v>-1.6390499999999999E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>422</v>
       </c>
@@ -23797,7 +23799,7 @@
         <v>8.7737478000000004E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>423</v>
       </c>
@@ -23856,7 +23858,7 @@
         <v>-1.8966361300000002E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>424</v>
       </c>
@@ -23915,7 +23917,7 @@
         <v>-1.3488764000000001E-3</v>
       </c>
     </row>
-    <row r="426" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>425</v>
       </c>
@@ -23974,7 +23976,7 @@
         <v>-3.0275372599999999E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>426</v>
       </c>
@@ -24033,7 +24035,7 @@
         <v>-1.8994453099999999E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>427</v>
       </c>
@@ -24092,7 +24094,7 @@
         <v>1.27042532E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>428</v>
       </c>
@@ -24151,7 +24153,7 @@
         <v>8.1068573000000008E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>429</v>
       </c>
@@ -24210,7 +24212,7 @@
         <v>1.1808063000000001E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>430</v>
       </c>
@@ -24269,7 +24271,7 @@
         <v>5.3641807999999999E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>431</v>
       </c>
@@ -24328,7 +24330,7 @@
         <v>1.3337782499999999E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>432</v>
       </c>
@@ -24387,7 +24389,7 @@
         <v>-1.3927538600000001E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>433</v>
       </c>
@@ -24446,7 +24448,7 @@
         <v>1.33190962E-2</v>
       </c>
     </row>
-    <row r="435" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>434</v>
       </c>
@@ -24505,7 +24507,7 @@
         <v>-5.6268982999999996E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>435</v>
       </c>
@@ -24564,7 +24566,7 @@
         <v>-1.113187E-4</v>
       </c>
     </row>
-    <row r="437" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>436</v>
       </c>
@@ -24623,7 +24625,7 @@
         <v>-1.7496592200000001E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>437</v>
       </c>
@@ -24682,7 +24684,7 @@
         <v>2.7267234E-3</v>
       </c>
     </row>
-    <row r="439" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>438</v>
       </c>
@@ -24741,7 +24743,7 @@
         <v>4.3085014999999999E-3</v>
       </c>
     </row>
-    <row r="440" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>439</v>
       </c>
@@ -24800,7 +24802,7 @@
         <v>2.17218216E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>440</v>
       </c>
@@ -24859,7 +24861,7 @@
         <v>1.4875280499999999E-2</v>
       </c>
     </row>
-    <row r="442" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>441</v>
       </c>
@@ -24918,7 +24920,7 @@
         <v>2.3252985399999999E-2</v>
       </c>
     </row>
-    <row r="443" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>442</v>
       </c>
@@ -24977,7 +24979,7 @@
         <v>-3.4756567000000002E-2</v>
       </c>
     </row>
-    <row r="444" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>443</v>
       </c>
@@ -25036,7 +25038,7 @@
         <v>8.0369947100000005E-2</v>
       </c>
     </row>
-    <row r="445" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>444</v>
       </c>
@@ -25095,7 +25097,7 @@
         <v>1.2986397E-2</v>
       </c>
     </row>
-    <row r="446" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>445</v>
       </c>
@@ -25154,7 +25156,7 @@
         <v>-7.2521162000000004E-3</v>
       </c>
     </row>
-    <row r="447" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>446</v>
       </c>
@@ -25213,7 +25215,7 @@
         <v>4.9099006999999998E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>447</v>
       </c>
@@ -25272,7 +25274,7 @@
         <v>4.6118360999999998E-3</v>
       </c>
     </row>
-    <row r="449" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>448</v>
       </c>
@@ -25331,7 +25333,7 @@
         <v>4.2775008000000003E-3</v>
       </c>
     </row>
-    <row r="450" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>449</v>
       </c>
@@ -25390,7 +25392,7 @@
         <v>-3.5133059100000003E-2</v>
       </c>
     </row>
-    <row r="451" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>450</v>
       </c>
@@ -25449,7 +25451,7 @@
         <v>9.0818718000000003E-3</v>
       </c>
     </row>
-    <row r="452" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>451</v>
       </c>
@@ -25508,7 +25510,7 @@
         <v>4.5720054099999997E-2</v>
       </c>
     </row>
-    <row r="453" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>452</v>
       </c>
@@ -25567,7 +25569,7 @@
         <v>1.9477184999999999E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>453</v>
       </c>
@@ -25626,7 +25628,7 @@
         <v>7.2237467000000003E-3</v>
       </c>
     </row>
-    <row r="455" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>454</v>
       </c>
@@ -25685,7 +25687,7 @@
         <v>-1.2168884999999999E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>455</v>
       </c>
@@ -25744,7 +25746,7 @@
         <v>2.7960737999999999E-2</v>
       </c>
     </row>
-    <row r="457" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>456</v>
       </c>
@@ -25803,7 +25805,7 @@
         <v>3.187129E-4</v>
       </c>
     </row>
-    <row r="458" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>457</v>
       </c>
@@ -25862,7 +25864,7 @@
         <v>1.1490455E-2</v>
       </c>
     </row>
-    <row r="459" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>458</v>
       </c>
@@ -25921,7 +25923,7 @@
         <v>1.1479848399999999E-2</v>
       </c>
     </row>
-    <row r="460" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>459</v>
       </c>
@@ -25980,7 +25982,7 @@
         <v>-4.3300381000000001E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>460</v>
       </c>
@@ -26039,7 +26041,7 @@
         <v>1.31635694E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>461</v>
       </c>
@@ -26098,7 +26100,7 @@
         <v>3.1148051499999999E-2</v>
       </c>
     </row>
-    <row r="463" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>462</v>
       </c>
@@ -26157,7 +26159,7 @@
         <v>1.42415501E-2</v>
       </c>
     </row>
-    <row r="464" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>463</v>
       </c>
@@ -26216,7 +26218,7 @@
         <v>3.1090699000000002E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>464</v>
       </c>
@@ -26275,7 +26277,7 @@
         <v>4.6864324899999997E-2</v>
       </c>
     </row>
-    <row r="466" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>465</v>
       </c>
@@ -26334,7 +26336,7 @@
         <v>-2.43625258E-2</v>
       </c>
     </row>
-    <row r="467" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>466</v>
       </c>
@@ -26393,7 +26395,7 @@
         <v>-2.3971242000000001E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>467</v>
       </c>
@@ -26452,7 +26454,7 @@
         <v>-1.0514963699999999E-2</v>
       </c>
     </row>
-    <row r="469" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
         <v>468</v>
       </c>
@@ -26511,7 +26513,7 @@
         <v>-1.50499485E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
         <v>469</v>
       </c>
@@ -26570,7 +26572,7 @@
         <v>-1.53815767E-2</v>
       </c>
     </row>
-    <row r="471" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>470</v>
       </c>
@@ -26629,7 +26631,7 @@
         <v>-3.9656400000000003E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>471</v>
       </c>
@@ -26688,7 +26690,7 @@
         <v>-6.2938559999999998E-4</v>
       </c>
     </row>
-    <row r="473" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>472</v>
       </c>
@@ -26747,7 +26749,7 @@
         <v>-1.6059106399999998E-2</v>
       </c>
     </row>
-    <row r="474" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>473</v>
       </c>
@@ -26806,7 +26808,7 @@
         <v>3.4740734699999998E-2</v>
       </c>
     </row>
-    <row r="475" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>474</v>
       </c>
@@ -26865,7 +26867,7 @@
         <v>5.0447080999999998E-3</v>
       </c>
     </row>
-    <row r="476" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>475</v>
       </c>
@@ -26924,7 +26926,7 @@
         <v>4.2273787399999999E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>476</v>
       </c>
@@ -26983,7 +26985,7 @@
         <v>2.8879324800000002E-2</v>
       </c>
     </row>
-    <row r="478" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
         <v>477</v>
       </c>
@@ -27042,7 +27044,7 @@
         <v>2.10648259E-2</v>
       </c>
     </row>
-    <row r="479" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>478</v>
       </c>
@@ -27101,7 +27103,7 @@
         <v>-8.5423628999999994E-3</v>
       </c>
     </row>
-    <row r="480" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>479</v>
       </c>
@@ -27160,7 +27162,7 @@
         <v>1.50665993E-2</v>
       </c>
     </row>
-    <row r="481" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>480</v>
       </c>
@@ -27219,7 +27221,7 @@
         <v>2.48646636E-2</v>
       </c>
     </row>
-    <row r="482" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>481</v>
       </c>
@@ -27278,7 +27280,7 @@
         <v>4.2045316000000003E-3</v>
       </c>
     </row>
-    <row r="483" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>482</v>
       </c>
@@ -27337,7 +27339,7 @@
         <v>1.3110107000000001E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
         <v>483</v>
       </c>
@@ -27396,7 +27398,7 @@
         <v>-1.0829907099999999E-2</v>
       </c>
     </row>
-    <row r="485" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>484</v>
       </c>
@@ -27455,7 +27457,7 @@
         <v>8.9477749999999998E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
         <v>485</v>
       </c>
@@ -27514,7 +27516,7 @@
         <v>2.0415403200000001E-2</v>
       </c>
     </row>
-    <row r="487" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
         <v>486</v>
       </c>
@@ -27573,7 +27575,7 @@
         <v>-1.16850306E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>487</v>
       </c>
@@ -27632,7 +27634,7 @@
         <v>1.9448779699999998E-2</v>
       </c>
     </row>
-    <row r="489" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>488</v>
       </c>
@@ -27691,7 +27693,7 @@
         <v>-4.3293838000000003E-3</v>
       </c>
     </row>
-    <row r="490" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>489</v>
       </c>
@@ -27750,7 +27752,7 @@
         <v>-3.1153700000000002E-4</v>
       </c>
     </row>
-    <row r="491" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>490</v>
       </c>
@@ -27809,7 +27811,7 @@
         <v>2.4520410999999999E-3</v>
       </c>
     </row>
-    <row r="492" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
         <v>491</v>
       </c>
@@ -27868,7 +27870,7 @@
         <v>6.5018927999999998E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>492</v>
       </c>
@@ -27927,7 +27929,7 @@
         <v>-4.4107484000000001E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>493</v>
       </c>
@@ -27986,7 +27988,7 @@
         <v>-2.3080458000000002E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>494</v>
       </c>
@@ -28045,7 +28047,7 @@
         <v>7.6090777000000004E-3</v>
       </c>
     </row>
-    <row r="496" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
         <v>495</v>
       </c>
@@ -28104,7 +28106,7 @@
         <v>-2.3934888999999999E-3</v>
       </c>
     </row>
-    <row r="497" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
         <v>496</v>
       </c>
@@ -28163,7 +28165,7 @@
         <v>1.8379389699999998E-2</v>
       </c>
     </row>
-    <row r="498" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
         <v>497</v>
       </c>
@@ -28222,7 +28224,7 @@
         <v>-1.94894413E-2</v>
       </c>
     </row>
-    <row r="499" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
         <v>498</v>
       </c>
@@ -28281,7 +28283,7 @@
         <v>-2.97212541E-2</v>
       </c>
     </row>
-    <row r="500" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
         <v>499</v>
       </c>
@@ -28340,7 +28342,7 @@
         <v>-3.4256375000000002E-3</v>
       </c>
     </row>
-    <row r="501" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>500</v>
       </c>
@@ -28399,7 +28401,7 @@
         <v>-5.1358486000000004E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>501</v>
       </c>
@@ -28458,7 +28460,7 @@
         <v>1.5754127E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
         <v>502</v>
       </c>
@@ -28517,7 +28519,7 @@
         <v>7.2303916999999999E-3</v>
       </c>
     </row>
-    <row r="504" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>503</v>
       </c>
@@ -28576,7 +28578,7 @@
         <v>4.2646250000000002E-3</v>
       </c>
     </row>
-    <row r="505" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
         <v>504</v>
       </c>
@@ -28635,7 +28637,7 @@
         <v>-2.4418492E-2</v>
       </c>
     </row>
-    <row r="506" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
         <v>505</v>
       </c>
@@ -28694,7 +28696,7 @@
         <v>3.28209005E-2</v>
       </c>
     </row>
-    <row r="507" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>506</v>
       </c>
@@ -28753,7 +28755,7 @@
         <v>-5.5481509999999999E-4</v>
       </c>
     </row>
-    <row r="508" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>507</v>
       </c>
@@ -28812,7 +28814,7 @@
         <v>6.3734025E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>508</v>
       </c>
@@ -28871,7 +28873,7 @@
         <v>1.14655878E-2</v>
       </c>
     </row>
-    <row r="510" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>509</v>
       </c>
@@ -28930,7 +28932,7 @@
         <v>1.18100119E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
         <v>510</v>
       </c>
@@ -28989,7 +28991,7 @@
         <v>5.8650504999999999E-3</v>
       </c>
     </row>
-    <row r="512" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>511</v>
       </c>
@@ -29048,7 +29050,7 @@
         <v>1.36631518E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
         <v>512</v>
       </c>
@@ -29107,7 +29109,7 @@
         <v>1.8156343700000001E-2</v>
       </c>
     </row>
-    <row r="514" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
         <v>513</v>
       </c>
@@ -29166,7 +29168,7 @@
         <v>-6.8955463000000003E-3</v>
       </c>
     </row>
-    <row r="515" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
         <v>514</v>
       </c>
@@ -29225,7 +29227,7 @@
         <v>7.5687654999999996E-3</v>
       </c>
     </row>
-    <row r="516" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
         <v>515</v>
       </c>
@@ -29284,7 +29286,7 @@
         <v>1.9937984799999999E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>516</v>
       </c>
@@ -29343,7 +29345,7 @@
         <v>1.00020522E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>517</v>
       </c>
@@ -29402,7 +29404,7 @@
         <v>4.2797634899999999E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>518</v>
       </c>
@@ -29461,7 +29463,7 @@
         <v>-5.3644976000000004E-3</v>
       </c>
     </row>
-    <row r="520" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
         <v>519</v>
       </c>
@@ -29520,7 +29522,7 @@
         <v>9.0895976000000007E-3</v>
       </c>
     </row>
-    <row r="521" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
         <v>520</v>
       </c>
@@ -29579,7 +29581,7 @@
         <v>-1.0756257199999999E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
         <v>521</v>
       </c>
@@ -29638,7 +29640,7 @@
         <v>6.6253275E-3</v>
       </c>
     </row>
-    <row r="523" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
         <v>522</v>
       </c>
@@ -29697,7 +29699,7 @@
         <v>-2.16153202E-2</v>
       </c>
     </row>
-    <row r="524" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
         <v>523</v>
       </c>
@@ -29756,7 +29758,7 @@
         <v>1.27121318E-2</v>
       </c>
     </row>
-    <row r="525" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
         <v>524</v>
       </c>
@@ -29815,7 +29817,7 @@
         <v>9.1691085000000002E-3</v>
       </c>
     </row>
-    <row r="526" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
         <v>525</v>
       </c>
@@ -29874,7 +29876,7 @@
         <v>2.3453303000000002E-3</v>
       </c>
     </row>
-    <row r="527" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
         <v>526</v>
       </c>
@@ -29933,7 +29935,7 @@
         <v>1.3130048E-2</v>
       </c>
     </row>
-    <row r="528" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
         <v>527</v>
       </c>
@@ -29992,7 +29994,7 @@
         <v>9.2061499000000001E-3</v>
       </c>
     </row>
-    <row r="529" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
         <v>528</v>
       </c>
@@ -30051,7 +30053,7 @@
         <v>-2.7721189199999999E-2</v>
       </c>
     </row>
-    <row r="530" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
         <v>529</v>
       </c>
@@ -30110,7 +30112,7 @@
         <v>2.9642784500000002E-2</v>
       </c>
     </row>
-    <row r="531" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
         <v>530</v>
       </c>
@@ -30169,7 +30171,7 @@
         <v>1.9884097399999998E-2</v>
       </c>
     </row>
-    <row r="532" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
         <v>531</v>
       </c>
@@ -30228,7 +30230,7 @@
         <v>-1.35834106E-2</v>
       </c>
     </row>
-    <row r="533" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
         <v>532</v>
       </c>
@@ -30287,7 +30289,7 @@
         <v>-7.6745590999999997E-3</v>
       </c>
     </row>
-    <row r="534" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
         <v>533</v>
       </c>
@@ -30346,7 +30348,7 @@
         <v>7.1153238999999997E-3</v>
       </c>
     </row>
-    <row r="535" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
         <v>534</v>
       </c>
@@ -30405,7 +30407,7 @@
         <v>2.47482768E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
         <v>535</v>
       </c>
@@ -30464,7 +30466,7 @@
         <v>-8.8112349999999999E-4</v>
       </c>
     </row>
-    <row r="537" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
         <v>536</v>
       </c>
@@ -30523,7 +30525,7 @@
         <v>-6.9684685999999996E-3</v>
       </c>
     </row>
-    <row r="538" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
         <v>537</v>
       </c>
@@ -30582,7 +30584,7 @@
         <v>4.5577634000000004E-3</v>
       </c>
     </row>
-    <row r="539" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
         <v>538</v>
       </c>
@@ -30641,7 +30643,7 @@
         <v>-1.6602053700000001E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
         <v>539</v>
       </c>
@@ -30700,7 +30702,7 @@
         <v>-2.2110798500000001E-2</v>
       </c>
     </row>
-    <row r="541" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
         <v>540</v>
       </c>
@@ -30759,7 +30761,7 @@
         <v>3.5842730000000002E-4</v>
       </c>
     </row>
-    <row r="542" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>541</v>
       </c>
@@ -30818,7 +30820,7 @@
         <v>-4.0840115E-3</v>
       </c>
     </row>
-    <row r="543" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
         <v>542</v>
       </c>
@@ -30877,7 +30879,7 @@
         <v>1.1623477199999999E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
         <v>543</v>
       </c>
@@ -30936,7 +30938,7 @@
         <v>-1.25100204E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
         <v>544</v>
       </c>
@@ -30995,7 +30997,7 @@
         <v>2.5180547999999999E-3</v>
       </c>
     </row>
-    <row r="546" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
         <v>545</v>
       </c>
@@ -31054,7 +31056,7 @@
         <v>3.9824489000000003E-3</v>
       </c>
     </row>
-    <row r="547" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
         <v>546</v>
       </c>
@@ -31113,7 +31115,7 @@
         <v>-1.4133363600000001E-2</v>
       </c>
     </row>
-    <row r="548" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>547</v>
       </c>
@@ -31172,7 +31174,7 @@
         <v>-6.0082555999999999E-3</v>
       </c>
     </row>
-    <row r="549" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>548</v>
       </c>
@@ -31231,7 +31233,7 @@
         <v>1.6893394400000001E-2</v>
       </c>
     </row>
-    <row r="550" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>549</v>
       </c>
@@ -31290,7 +31292,7 @@
         <v>-1.01599614E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
         <v>550</v>
       </c>
@@ -31349,7 +31351,7 @@
         <v>4.0999959999999998E-3</v>
       </c>
     </row>
-    <row r="552" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
         <v>551</v>
       </c>
@@ -31408,7 +31410,7 @@
         <v>1.9052280999999999E-3</v>
       </c>
     </row>
-    <row r="553" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
         <v>552</v>
       </c>
@@ -31467,7 +31469,7 @@
         <v>3.3499650999999999E-3</v>
       </c>
     </row>
-    <row r="554" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
         <v>553</v>
       </c>
@@ -31526,7 +31528,7 @@
         <v>-1.6455487099999999E-2</v>
       </c>
     </row>
-    <row r="555" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
         <v>554</v>
       </c>
@@ -31585,7 +31587,7 @@
         <v>8.0091259999999997E-4</v>
       </c>
     </row>
-    <row r="556" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
         <v>555</v>
       </c>
@@ -31644,7 +31646,7 @@
         <v>1.3360706E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
         <v>556</v>
       </c>
@@ -31703,7 +31705,7 @@
         <v>-3.3747680000000002E-4</v>
       </c>
     </row>
-    <row r="558" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
         <v>557</v>
       </c>
@@ -31762,7 +31764,7 @@
         <v>1.2966870700000001E-2</v>
       </c>
     </row>
-    <row r="559" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
         <v>558</v>
       </c>
@@ -31821,7 +31823,7 @@
         <v>1.9416943E-3</v>
       </c>
     </row>
-    <row r="560" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
         <v>559</v>
       </c>
@@ -31880,7 +31882,7 @@
         <v>-1.5977993499999999E-2</v>
       </c>
     </row>
-    <row r="561" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
         <v>560</v>
       </c>
@@ -31939,7 +31941,7 @@
         <v>1.15899508E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>561</v>
       </c>
@@ -31998,7 +32000,7 @@
         <v>-1.90514065E-2</v>
       </c>
     </row>
-    <row r="563" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>562</v>
       </c>
@@ -32057,7 +32059,7 @@
         <v>9.3181529999999992E-3</v>
       </c>
     </row>
-    <row r="564" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>563</v>
       </c>
@@ -32116,7 +32118,7 @@
         <v>1.11239583E-2</v>
       </c>
     </row>
-    <row r="565" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
         <v>564</v>
       </c>
@@ -32175,7 +32177,7 @@
         <v>2.8010272100000001E-2</v>
       </c>
     </row>
-    <row r="566" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
         <v>565</v>
       </c>
@@ -32234,7 +32236,7 @@
         <v>1.4648935300000001E-2</v>
       </c>
     </row>
-    <row r="567" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
         <v>566</v>
       </c>
@@ -32293,7 +32295,7 @@
         <v>-3.6287995E-3</v>
       </c>
     </row>
-    <row r="568" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
         <v>567</v>
       </c>
@@ -32352,7 +32354,7 @@
         <v>2.278051E-2</v>
       </c>
     </row>
-    <row r="569" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
         <v>568</v>
       </c>
@@ -32411,7 +32413,7 @@
         <v>-8.1855846000000003E-3</v>
       </c>
     </row>
-    <row r="570" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
         <v>569</v>
       </c>
@@ -32470,7 +32472,7 @@
         <v>3.2500852199999999E-2</v>
       </c>
     </row>
-    <row r="571" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
         <v>570</v>
       </c>
@@ -32529,7 +32531,7 @@
         <v>1.02497345E-2</v>
       </c>
     </row>
-    <row r="572" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
         <v>571</v>
       </c>
@@ -32588,7 +32590,7 @@
         <v>3.6189137900000001E-2</v>
       </c>
     </row>
-    <row r="573" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
         <v>572</v>
       </c>
@@ -32647,37 +32649,37 @@
         <v>7.6459610799999994E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M575" s="1"/>
     </row>
-    <row r="576" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:19" x14ac:dyDescent="0.2">
       <c r="M576" s="1"/>
     </row>
-    <row r="577" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M577" s="1"/>
     </row>
-    <row r="578" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M578" s="1"/>
     </row>
-    <row r="579" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M579" s="1"/>
     </row>
-    <row r="580" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M580" s="1"/>
     </row>
-    <row r="581" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M581" s="1"/>
     </row>
-    <row r="582" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M582" s="1"/>
     </row>
-    <row r="583" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M583" s="1"/>
     </row>
-    <row r="584" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M584" s="1"/>
     </row>
-    <row r="585" spans="13:13" x14ac:dyDescent="0.15">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M585" s="1"/>
     </row>
   </sheetData>
